--- a/Dataset_Latest/Lokasi-Pusat-Pemulihan-Dadah.xlsx
+++ b/Dataset_Latest/Lokasi-Pusat-Pemulihan-Dadah.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\University Malaya\Semester 2\Introduction to Data Science\Group Project\Data set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\my-drug-hotspot\Dataset_Latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E9FE2-3AC7-4F58-A878-F608864A0A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8A60A-83BF-4B41-B01E-A4BCFC08A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,18 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
-    <t>Institusi</t>
-  </si>
-  <si>
     <t>Latitud</t>
   </si>
   <si>
     <t>Longitud</t>
   </si>
   <si>
-    <t>Alamat</t>
-  </si>
-  <si>
     <t>Kem Dataran Gelugor, Kampung Perik, Kuala Nerang</t>
   </si>
   <si>
@@ -359,6 +353,12 @@
   </si>
   <si>
     <t>&lt;a&gt;RENEWAL LIFE CENTRE&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Institution</t>
   </si>
 </sst>
 </file>
@@ -747,8 +747,8 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -759,21 +759,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5">
         <v>6.3357886285083103</v>
@@ -782,12 +782,12 @@
         <v>100.520837526485</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5">
         <v>6.4451845189299997</v>
@@ -796,12 +796,12 @@
         <v>100.51114973999999</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5">
         <v>5.9618142056329901</v>
@@ -810,12 +810,12 @@
         <v>100.53113334667</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5">
         <v>4.7281000000000004</v>
@@ -824,12 +824,12 @@
         <v>101.1251</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5">
         <v>4.7258050000000003</v>
@@ -838,12 +838,12 @@
         <v>101.123932</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5">
         <v>4.4790999999999999</v>
@@ -852,12 +852,12 @@
         <v>101.15900000000001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5">
         <v>3.09735</v>
@@ -866,12 +866,12 @@
         <v>101.64294</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5">
         <v>3.0667200000000001</v>
@@ -880,12 +880,12 @@
         <v>101.650119</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="5">
         <v>3.1265999999999998</v>
@@ -894,12 +894,12 @@
         <v>101.8263</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5">
         <v>2.9396</v>
@@ -908,12 +908,12 @@
         <v>101.89960000000001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5">
         <v>3.1233</v>
@@ -922,12 +922,12 @@
         <v>101.8661</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5">
         <v>3.0516999999999999</v>
@@ -936,12 +936,12 @@
         <v>101.4564</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5">
         <v>3.0042</v>
@@ -950,12 +950,12 @@
         <v>101.42359999999999</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5">
         <v>3.86781</v>
@@ -964,12 +964,12 @@
         <v>100.881552</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5">
         <v>3.1398229999999998</v>
@@ -978,12 +978,12 @@
         <v>101.748797</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="5">
         <v>3.2510889999999999</v>
@@ -992,12 +992,12 @@
         <v>101.448916</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5">
         <v>3.441462</v>
@@ -1006,12 +1006,12 @@
         <v>101.556804</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5">
         <v>3.081448</v>
@@ -1020,12 +1020,12 @@
         <v>101.67337000000001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5">
         <v>3.0998839999999999</v>
@@ -1034,12 +1034,12 @@
         <v>101.677387</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5">
         <v>3.1688000000000001</v>
@@ -1048,12 +1048,12 @@
         <v>101.6849</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5">
         <v>3.0771600000000001</v>
@@ -1062,12 +1062,12 @@
         <v>101.66340940000001</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="5">
         <v>3.1053999999999999</v>
@@ -1076,12 +1076,12 @@
         <v>101.7375</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5">
         <v>2.536438</v>
@@ -1090,12 +1090,12 @@
         <v>101.806478</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5">
         <v>3.1088</v>
@@ -1104,12 +1104,12 @@
         <v>101.6808</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5">
         <v>2.8236140000000001</v>
@@ -1118,12 +1118,12 @@
         <v>101.892594</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="5">
         <v>2.6948685000000001</v>
@@ -1132,12 +1132,12 @@
         <v>101.98475449999999</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="5">
         <v>2.3048000000000002</v>
@@ -1146,12 +1146,12 @@
         <v>102.42662</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5">
         <v>1.4678709999999999</v>
@@ -1160,12 +1160,12 @@
         <v>103.740685</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="5">
         <v>1.5332619999999999</v>
@@ -1174,12 +1174,12 @@
         <v>103.705387</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="5">
         <v>1.6847852259740499</v>
@@ -1188,12 +1188,12 @@
         <v>103.779602118304</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="5">
         <v>1.60747</v>
@@ -1202,12 +1202,12 @@
         <v>103.808798</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="5">
         <v>2.04101759889098</v>
@@ -1216,12 +1216,12 @@
         <v>102.551143616223</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="5">
         <v>2.0428666138710301</v>
@@ -1230,12 +1230,12 @@
         <v>102.55785348750901</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="5">
         <v>5.4084545905915702</v>
@@ -1244,12 +1244,12 @@
         <v>100.290056839374</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="5">
         <v>1.7696049609136999</v>
@@ -1258,12 +1258,12 @@
         <v>103.929729084659</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="5">
         <v>2.18134728774973</v>
@@ -1272,12 +1272,12 @@
         <v>102.549556419033</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="5">
         <v>2.5066549999999999</v>
@@ -1286,12 +1286,12 @@
         <v>102.842572</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="5">
         <v>3.0527656751389398</v>
@@ -1300,12 +1300,12 @@
         <v>101.679650738262</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="5">
         <v>2.4828510000000001</v>
@@ -1314,12 +1314,12 @@
         <v>102.816914</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="5">
         <v>3.1054475915642201</v>
@@ -1328,12 +1328,12 @@
         <v>101.737440637162</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" s="5">
         <v>2.5028568503545898</v>
@@ -1342,12 +1342,12 @@
         <v>102.829669095668</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" s="5">
         <v>3.706674</v>
@@ -1356,12 +1356,12 @@
         <v>103.10145199999999</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" s="5">
         <v>3.8113576053644098</v>
@@ -1370,12 +1370,12 @@
         <v>103.335718369457</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" s="5">
         <v>3.8085404924054802</v>
@@ -1384,12 +1384,12 @@
         <v>103.31921751515</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="5">
         <v>3.8157649999999999</v>
@@ -1398,12 +1398,12 @@
         <v>103.352538</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="5">
         <v>3.7454000000000001</v>
@@ -1412,12 +1412,12 @@
         <v>103.16970000000001</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="5">
         <v>5.3390711814899001</v>
@@ -1426,12 +1426,12 @@
         <v>102.998314738787</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="5">
         <v>5.5567578547211198</v>
@@ -1440,12 +1440,12 @@
         <v>102.87198283068</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="5">
         <v>5.34227217358589</v>
@@ -1454,12 +1454,12 @@
         <v>103.11950684021301</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="5">
         <v>5.0431095826251804</v>
@@ -1468,12 +1468,12 @@
         <v>102.93630690369</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="5">
         <v>5.8152355307437302</v>
@@ -1482,12 +1482,12 @@
         <v>102.346768642329</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="5">
         <v>6.1255337000000001</v>
@@ -1496,12 +1496,12 @@
         <v>102.2015703</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="5">
         <v>5.9451000000000001</v>
@@ -1510,12 +1510,12 @@
         <v>102.4452</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="5">
         <v>5.9517129999999998</v>
@@ -1524,12 +1524,12 @@
         <v>116.053321</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="5">
         <v>6.0209999999999999</v>
@@ -1538,7 +1538,7 @@
         <v>116.15300000000001</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
